--- a/projecten-voor-het-werkveld-zb0138/config.xlsx
+++ b/projecten-voor-het-werkveld-zb0138/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\canvas-course-scaffolder-with-course-configs\projecten-voor-het-werkveld-zb0138\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333741A7-2960-4572-8BCB-866CDBDD8E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CFACDF-1B03-4E04-AC3D-4266A3DA73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="390" windowWidth="33735" windowHeight="20295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemene info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Naam</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>installatie_xampp.html</t>
+  </si>
+  <si>
+    <t>individueel.html</t>
   </si>
 </sst>
 </file>
@@ -766,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181C0AF-0EEA-45EA-A4B8-73E6C5261177}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1513,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11EB8F4-6AB6-42E9-9C0F-BD3065663B06}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/projecten-voor-het-werkveld-zb0138/config.xlsx
+++ b/projecten-voor-het-werkveld-zb0138/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\canvas-course-scaffolder-with-course-configs\projecten-voor-het-werkveld-zb0138\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joren\Documents\repositories\canvas-course-scaffolder-with-templates\projecten-voor-het-werkveld-zb0138\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CFACDF-1B03-4E04-AC3D-4266A3DA73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2264F758-E21A-4E0F-9FFD-51E6EC3AF99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="390" windowWidth="33735" windowHeight="20295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemene info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>Naam</t>
   </si>
@@ -183,15 +183,6 @@
     <t>Groepsopdracht definitief (export)</t>
   </si>
   <si>
-    <t>Eindrapport (documentatie)</t>
-  </si>
-  <si>
-    <t>Zelfreflectieverslag</t>
-  </si>
-  <si>
-    <t>Presentatie</t>
-  </si>
-  <si>
     <t>todo.html</t>
   </si>
   <si>
@@ -214,6 +205,33 @@
   </si>
   <si>
     <t>individueel.html</t>
+  </si>
+  <si>
+    <t>groepsopdracht_vergaderverslag.html</t>
+  </si>
+  <si>
+    <t>groepsopdracht_zelfreflectie.html</t>
+  </si>
+  <si>
+    <t>groepsopdracht_documentatie.html</t>
+  </si>
+  <si>
+    <t>groepsopdracht_website_definitief.html</t>
+  </si>
+  <si>
+    <t>groepsopdracht_website_tussentijds.html</t>
+  </si>
+  <si>
+    <t>Documentatie (in samenwerking met het opleidingsonderdeel "IT-professional 2")</t>
+  </si>
+  <si>
+    <t>Zelfreflectieverslag (in samenwerking met het opleidingsonderdeel "IT-professional 2")</t>
+  </si>
+  <si>
+    <t>Presentatie (in samenwerking met het opleidingsonderdeel "IT-professional 2")</t>
+  </si>
+  <si>
+    <t>Vergaderverslag (in samenwerking met het opleidingsonderdeel "IT-professional 2")</t>
   </si>
 </sst>
 </file>
@@ -271,7 +289,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -770,13 +788,13 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -829,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -846,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -871,7 +889,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>45438.999305555553</v>
@@ -880,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -888,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>45438.999305555553</v>
@@ -897,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,7 +923,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1">
         <v>45352.999305497688</v>
@@ -914,7 +932,24 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45382.999305555553</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1169,7 +1204,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1177,7 +1212,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1213,7 +1248,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1552,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,24 +1630,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
